--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H2">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I2">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J2">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>1575.466674104401</v>
+        <v>2078.354044173544</v>
       </c>
       <c r="R2">
-        <v>14179.20006693961</v>
+        <v>18705.1863975619</v>
       </c>
       <c r="S2">
-        <v>0.01552035690633257</v>
+        <v>0.02120909325254436</v>
       </c>
       <c r="T2">
-        <v>0.01552035690633257</v>
+        <v>0.02120909325254435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H3">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I3">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J3">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>7082.931499432932</v>
+        <v>7635.42913037178</v>
       </c>
       <c r="R3">
-        <v>63746.38349489638</v>
+        <v>68718.86217334603</v>
       </c>
       <c r="S3">
-        <v>0.06977591250973027</v>
+        <v>0.07791768149571662</v>
       </c>
       <c r="T3">
-        <v>0.06977591250973027</v>
+        <v>0.0779176814957166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H4">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I4">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J4">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>7820.649209959304</v>
+        <v>7328.94580148473</v>
       </c>
       <c r="R4">
-        <v>70385.84288963374</v>
+        <v>65960.51221336257</v>
       </c>
       <c r="S4">
-        <v>0.07704337322577529</v>
+        <v>0.07479009429711665</v>
       </c>
       <c r="T4">
-        <v>0.07704337322577529</v>
+        <v>0.07479009429711661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H5">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I5">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J5">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>1247.36232658387</v>
+        <v>1336.623225382364</v>
       </c>
       <c r="R5">
-        <v>11226.26093925483</v>
+        <v>12029.60902844127</v>
       </c>
       <c r="S5">
-        <v>0.01228811044898824</v>
+        <v>0.01363991217479212</v>
       </c>
       <c r="T5">
-        <v>0.01228811044898824</v>
+        <v>0.01363991217479212</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H6">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I6">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J6">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>6966.811539720482</v>
+        <v>6684.172762081478</v>
       </c>
       <c r="R6">
-        <v>62701.30385748434</v>
+        <v>60157.5548587333</v>
       </c>
       <c r="S6">
-        <v>0.0686319827470073</v>
+        <v>0.06821034357670082</v>
       </c>
       <c r="T6">
-        <v>0.06863198274700731</v>
+        <v>0.0682103435767008</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>764.743774</v>
       </c>
       <c r="I7">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J7">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>4685.9616121494</v>
+        <v>5734.408501940372</v>
       </c>
       <c r="R7">
-        <v>42173.6545093446</v>
+        <v>51609.67651746334</v>
       </c>
       <c r="S7">
-        <v>0.04616270078278584</v>
+        <v>0.05851823225537076</v>
       </c>
       <c r="T7">
-        <v>0.04616270078278584</v>
+        <v>0.05851823225537073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>764.743774</v>
       </c>
       <c r="I8">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J8">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>21066.99281766407</v>
+        <v>21066.99281766406</v>
       </c>
       <c r="R8">
         <v>189602.9353589766</v>
       </c>
       <c r="S8">
-        <v>0.2075367590108886</v>
+        <v>0.2149834944980193</v>
       </c>
       <c r="T8">
-        <v>0.2075367590108886</v>
+        <v>0.2149834944980192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>764.743774</v>
       </c>
       <c r="I9">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J9">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>23261.21052404269</v>
+        <v>20221.37144155643</v>
       </c>
       <c r="R9">
-        <v>209350.8947163843</v>
+        <v>181992.3429740079</v>
       </c>
       <c r="S9">
-        <v>0.2291526030607475</v>
+        <v>0.2063541357646071</v>
       </c>
       <c r="T9">
-        <v>0.2291526030607476</v>
+        <v>0.206354135764607</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>764.743774</v>
       </c>
       <c r="I10">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J10">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>3710.070212774329</v>
+        <v>3687.891198812312</v>
       </c>
       <c r="R10">
-        <v>33390.63191496896</v>
+        <v>33191.02078931081</v>
       </c>
       <c r="S10">
-        <v>0.03654892534146683</v>
+        <v>0.03763402513643953</v>
       </c>
       <c r="T10">
-        <v>0.03654892534146683</v>
+        <v>0.03763402513643952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>764.743774</v>
       </c>
       <c r="I11">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J11">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>20721.61345638612</v>
+        <v>18442.37136727111</v>
       </c>
       <c r="R11">
-        <v>186494.5211074751</v>
+        <v>165981.34230544</v>
       </c>
       <c r="S11">
-        <v>0.2041343316265313</v>
+        <v>0.188199876350733</v>
       </c>
       <c r="T11">
-        <v>0.2041343316265314</v>
+        <v>0.188199876350733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H12">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I12">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J12">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>0.2993647654373334</v>
+        <v>7.741128331790335</v>
       </c>
       <c r="R12">
-        <v>2.694282888936</v>
+        <v>69.670154986113</v>
       </c>
       <c r="S12">
-        <v>2.949124904472626E-06</v>
+        <v>7.899631592082345E-05</v>
       </c>
       <c r="T12">
-        <v>2.949124904472626E-06</v>
+        <v>7.899631592082341E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H13">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I13">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J13">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>1.345874312537778</v>
+        <v>28.43925313504611</v>
       </c>
       <c r="R13">
-        <v>12.11286881284</v>
+        <v>255.953278215415</v>
       </c>
       <c r="S13">
-        <v>1.32585792038576E-05</v>
+        <v>0.000290215602805901</v>
       </c>
       <c r="T13">
-        <v>1.325857920385759E-05</v>
+        <v>0.0002902156028059009</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H14">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I14">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J14">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>1.486052897715556</v>
+        <v>27.29771192982166</v>
       </c>
       <c r="R14">
-        <v>13.37447607944</v>
+        <v>245.679407368395</v>
       </c>
       <c r="S14">
-        <v>1.46395171242491E-05</v>
+        <v>0.000278566454798082</v>
       </c>
       <c r="T14">
-        <v>1.46395171242491E-05</v>
+        <v>0.0002785664547980818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H15">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I15">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J15">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>0.2370195044115556</v>
+        <v>4.978445298068</v>
       </c>
       <c r="R15">
-        <v>2.133175539704</v>
+        <v>44.806007682612</v>
       </c>
       <c r="S15">
-        <v>2.334944535923354E-06</v>
+        <v>5.080381317871293E-05</v>
       </c>
       <c r="T15">
-        <v>2.334944535923353E-06</v>
+        <v>5.080381317871291E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H16">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I16">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J16">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>1.323809596683556</v>
+        <v>24.89616207988556</v>
       </c>
       <c r="R16">
-        <v>11.914286370152</v>
+        <v>224.06545871897</v>
       </c>
       <c r="S16">
-        <v>1.304121359992375E-05</v>
+        <v>0.0002540592276195754</v>
       </c>
       <c r="T16">
-        <v>1.304121359992375E-05</v>
+        <v>0.0002540592276195753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H17">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I17">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J17">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>212.6532611250353</v>
+        <v>303.4463952965677</v>
       </c>
       <c r="R17">
-        <v>1913.879350125318</v>
+        <v>2731.017557669109</v>
       </c>
       <c r="S17">
-        <v>0.002094905950220928</v>
+        <v>0.00309659603619293</v>
       </c>
       <c r="T17">
-        <v>0.002094905950220928</v>
+        <v>0.003096596036192928</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H18">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I18">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J18">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>956.0395700124077</v>
+        <v>1114.797285211844</v>
       </c>
       <c r="R18">
-        <v>8604.35613011167</v>
+        <v>10033.17556690659</v>
       </c>
       <c r="S18">
-        <v>0.0094182095927889</v>
+        <v>0.01137623286370501</v>
       </c>
       <c r="T18">
-        <v>0.0094182095927889</v>
+        <v>0.01137623286370501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H19">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I19">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J19">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>1055.615193865135</v>
+        <v>1070.049730467748</v>
       </c>
       <c r="R19">
-        <v>9500.536744786219</v>
+        <v>9630.447574209735</v>
       </c>
       <c r="S19">
-        <v>0.01039915653807645</v>
+        <v>0.01091959504299711</v>
       </c>
       <c r="T19">
-        <v>0.01039915653807646</v>
+        <v>0.01091959504299711</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H20">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I20">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J20">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>168.3664090853335</v>
+        <v>195.151302901924</v>
       </c>
       <c r="R20">
-        <v>1515.297681768002</v>
+        <v>1756.361726117316</v>
       </c>
       <c r="S20">
-        <v>0.001658623951234915</v>
+        <v>0.001991471180382214</v>
       </c>
       <c r="T20">
-        <v>0.001658623951234915</v>
+        <v>0.001991471180382213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H21">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I21">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J21">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>940.3659359581694</v>
+        <v>975.9107866531344</v>
       </c>
       <c r="R21">
-        <v>8463.293423623525</v>
+        <v>8783.197079878211</v>
       </c>
       <c r="S21">
-        <v>0.00926380429908168</v>
+        <v>0.009958930211296539</v>
       </c>
       <c r="T21">
-        <v>0.009263804299081682</v>
+        <v>0.009958930211296537</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H22">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I22">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J22">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>2.098512936858333</v>
+        <v>2.012349486416</v>
       </c>
       <c r="R22">
-        <v>18.886616431725</v>
+        <v>18.111145377744</v>
       </c>
       <c r="S22">
-        <v>2.067302995863891E-05</v>
+        <v>2.05355329298952E-05</v>
       </c>
       <c r="T22">
-        <v>2.06730299586389E-05</v>
+        <v>2.05355329298952E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H23">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I23">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J23">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>9.43442576523611</v>
+        <v>7.392942473946665</v>
       </c>
       <c r="R23">
-        <v>84.90983188712499</v>
+        <v>66.53648226551999</v>
       </c>
       <c r="S23">
-        <v>9.294113134192585E-05</v>
+        <v>7.544316464280812E-05</v>
       </c>
       <c r="T23">
-        <v>9.294113134192582E-05</v>
+        <v>7.544316464280811E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H24">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I24">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J24">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>10.41706169447222</v>
+        <v>7.096192470639998</v>
       </c>
       <c r="R24">
-        <v>93.75355525025</v>
+        <v>63.86573223575999</v>
       </c>
       <c r="S24">
-        <v>0.0001026213490078437</v>
+        <v>7.241490364441474E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001026213490078437</v>
+        <v>7.241490364441471E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H25">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I25">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J25">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>1.661479752197222</v>
+        <v>1.294174622784</v>
       </c>
       <c r="R25">
-        <v>14.953317769775</v>
+        <v>11.647571605056</v>
       </c>
       <c r="S25">
-        <v>1.636769547118778E-05</v>
+        <v>1.320673459685597E-05</v>
       </c>
       <c r="T25">
-        <v>1.636769547118778E-05</v>
+        <v>1.320673459685597E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H26">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I26">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J26">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>9.279754618147221</v>
+        <v>6.471896192373332</v>
       </c>
       <c r="R26">
-        <v>83.51779156332499</v>
+        <v>58.24706573136</v>
       </c>
       <c r="S26">
-        <v>9.141742319538821E-05</v>
+        <v>6.604411324896058E-05</v>
       </c>
       <c r="T26">
-        <v>9.141742319538821E-05</v>
+        <v>6.604411324896058E-05</v>
       </c>
     </row>
   </sheetData>
